--- a/xlsx/智囊团_intext.xlsx
+++ b/xlsx/智囊团_intext.xlsx
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Royal_United_Services_Institute</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>澳洲國立大學</t>
+    <t>澳洲国立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%82%B3%E7%B5%B1%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>美國傳統基金會</t>
+    <t>美国传统基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%BB%8F%E6%B5%8E%E7%A0%94%E7%A9%B6%E6%89%80</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>美國國家科學研究院</t>
+    <t>美国国家科学研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%86%E5%92%B8%E6%A8%93</t>
   </si>
   <si>
-    <t>漆咸樓</t>
+    <t>漆咸楼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Institut_fran%C3%A7ais_des_relations_internationales</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%BD%E5%85%A9%E5%B2%B8%E9%97%9C%E4%BF%82%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>海峽兩岸關係協會</t>
+    <t>海峡两岸关系协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E5%85%9A%E6%A0%A1</t>
@@ -251,7 +251,7 @@
     <t>https://ja.wikipedia.org/wiki/%E7%B7%8F%E5%90%88%E7%A0%94%E7%A9%B6%E9%96%8B%E7%99%BA%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>ja-総合研究開発機構</t>
+    <t>ja-総合研究开発机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9B%9F</t>
@@ -269,61 +269,61 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E5%8C%AF%E6%94%BF%E7%AD%96%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>思匯政策研究所</t>
+    <t>思汇政策研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E7%B6%93%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>智經研究中心</t>
+    <t>智经研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%AA%BF%E6%9F%A5%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>香港調查研究中心</t>
+    <t>香港调查研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E8%B3%A2%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>匯賢智庫</t>
+    <t>汇贤智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Roundtable%E7%A0%94%E7%A9%B6%E6%89%80%E5%8F%8A%E5%85%B6%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>Roundtable研究所及其網絡</t>
+    <t>Roundtable研究所及其网络</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%85%E5%AD%90%E5%B1%B1%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>獅子山學會</t>
+    <t>狮子山学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%B0%88%E6%A5%AD%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>公共專業聯盟</t>
+    <t>公共专业联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%94%BF%E7%AD%96%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>澳門政策研究所</t>
+    <t>澳门政策研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%94%BF%E7%AD%96%E7%A0%94%E7%A9%B6%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>國家政策研究基金會</t>
+    <t>国家政策研究基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%83%E7%95%8C%E6%96%87%E6%95%99%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>新境界文教基金會</t>
+    <t>新境界文教基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B3%A1%E4%BA%A4%E6%B5%81%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -335,31 +335,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%9C%98%E6%B3%95%E4%BA%BA%E4%B8%AD%E5%9C%8B%E7%94%9F%E7%94%A2%E5%8A%9B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>財團法人中國生產力中心</t>
+    <t>财团法人中国生产力中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%B0%8D%E5%A4%96%E8%B2%BF%E6%98%93%E7%99%BC%E5%B1%95%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>中華民國對外貿易發展協會</t>
+    <t>中华民国对外贸易发展协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E7%B6%93%E6%BF%9F%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>台灣經濟研究院</t>
+    <t>台湾经济研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E6%8A%80%E8%A1%93%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>工業技術研究院</t>
+    <t>工业技术研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%9C%98%E6%B3%95%E4%BA%BA%E8%B3%87%E8%A8%8A%E5%B7%A5%E6%A5%AD%E7%AD%96%E9%80%B2%E6%9C%83</t>
   </si>
   <si>
-    <t>財團法人資訊工業策進會</t>
+    <t>财团法人资讯工业策进会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
